--- a/data_exports/enrollments_cleaned_1995292.xlsx
+++ b/data_exports/enrollments_cleaned_1995292.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q155"/>
+  <dimension ref="A1:Q151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,13 +539,13 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45902.72678240741</v>
+        <v>45986.86055555556</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>1.568055555555556</v>
+        <v>10.96444444444444</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -565,24 +565,24 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>97.85</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>73.85</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>97.82</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>88.50</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr"/>
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45902.68618055555</v>
+        <v>45986.20679398148</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2022222222222222</v>
+        <v>3.104722222222222</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -626,18 +626,26 @@
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>65.59</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
+          <t>44.24</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>69.83</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>57.81</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr"/>
@@ -657,13 +665,13 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45897.58836805556</v>
+        <v>45984.63214120371</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8075</v>
+        <v>7.147222222222222</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -681,18 +689,26 @@
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
+          <t>65.37</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>80.02</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr"/>
@@ -712,13 +728,13 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45902.69998842593</v>
+        <v>45987.16219907408</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1.979444444444444</v>
+        <v>10.1325</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -738,24 +754,24 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>97.22</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>72.44</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>97.67</t>
         </is>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>87.44</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
@@ -775,13 +791,13 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45902.66438657408</v>
+        <v>45987.13201388889</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>5.713888888888889</v>
+        <v>10.0375</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -799,18 +815,26 @@
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>96.69</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>96.47</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>84.20</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr"/>
@@ -830,13 +854,13 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45902.85024305555</v>
+        <v>45979.97914351852</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06111111111111111</v>
+        <v>3.478888888888889</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -854,18 +878,26 @@
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
+          <t>63.62</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>77.95</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>67.99</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr"/>
@@ -885,13 +917,13 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45902.77884259259</v>
+        <v>45988.22118055556</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>7.309444444444445</v>
+        <v>13.91194444444444</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -911,24 +943,24 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>91.81</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>65.52</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>92.81</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>80.17</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
@@ -948,13 +980,13 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45902.76069444444</v>
+        <v>45985.68136574074</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1858333333333333</v>
+        <v>4.563333333333333</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -972,18 +1004,26 @@
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>96.67</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
+          <t>71.71</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>97.21</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>86.71</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr"/>
@@ -1003,13 +1043,13 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45902.76614583333</v>
+        <v>45988.25858796296</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9858333333333333</v>
+        <v>9.624166666666667</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1027,18 +1067,26 @@
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
+          <t>70.43</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>84.73</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr"/>
@@ -1058,13 +1106,13 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45902.68659722222</v>
+        <v>45986.21928240741</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>2.272777777777778</v>
+        <v>14.37611111111111</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1082,18 +1130,26 @@
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>101.38</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
+          <t>72.51</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>100.75</t>
+        </is>
+      </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>87.16</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr"/>
@@ -1113,13 +1169,13 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45902.69096064815</v>
+        <v>45988.17068287037</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9861111111111112</v>
+        <v>4.838611111111111</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1139,24 +1195,24 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>99.79</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>75.34</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>99.82</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>90.34</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr"/>
@@ -1176,13 +1232,13 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45902.77935185185</v>
+        <v>45988.00460648148</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.346944444444444</v>
+        <v>6.665555555555556</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1202,24 +1258,24 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>87.67</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>66.01</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>89.68</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>81.01</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr"/>
@@ -1239,13 +1295,13 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45899.02865740741</v>
+        <v>45988.19289351852</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06527777777777778</v>
+        <v>1.324444444444445</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1263,18 +1319,26 @@
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>32.05</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
+          <t>16.70</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>35.68</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>24.70</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr"/>
@@ -1294,13 +1358,13 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45902.72636574074</v>
+        <v>45985.02928240741</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1044444444444445</v>
+        <v>4.855555555555555</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1318,18 +1382,26 @@
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
+          <t>63.35</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>77.65</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr"/>
@@ -1349,13 +1421,13 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45902.4591087963</v>
+        <v>45988.91372685185</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2.6625</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1373,18 +1445,26 @@
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>75.56</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
+          <t>52.80</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>71.77</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>60.80</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr"/>
@@ -1404,13 +1484,13 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45902.81909722222</v>
+        <v>45987.64784722222</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4680555555555556</v>
+        <v>4.945277777777778</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1428,18 +1508,26 @@
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>49.01</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>56.08</t>
+        </is>
+      </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>44.16</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr"/>
@@ -1459,13 +1547,13 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45902.81511574074</v>
+        <v>45986.12488425926</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5986111111111111</v>
+        <v>10.85111111111111</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1483,18 +1571,26 @@
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
+          <t>66.33</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>81.33</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr"/>
@@ -1514,13 +1610,13 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45902.64878472222</v>
+        <v>45985.7922337963</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>4.265</v>
+        <v>21.23166666666667</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1538,18 +1634,26 @@
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
+          <t>72.19</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>87.19</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr"/>
@@ -1569,13 +1673,13 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45902.69226851852</v>
+        <v>45986.70792824074</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>2.865277777777778</v>
+        <v>8.489444444444445</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1595,24 +1699,24 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>88.33</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>66.52</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>89.09</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>80.47</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr"/>
@@ -1632,13 +1736,13 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45897.62871527778</v>
+        <v>45985.17928240741</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04277777777777778</v>
+        <v>17.83694444444444</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1656,18 +1760,26 @@
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>69.85</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
+          <t>49.49</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>73.40</t>
+        </is>
+      </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>63.09</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr"/>
@@ -1687,13 +1799,13 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45902.68050925926</v>
+        <v>45985.16987268518</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6872222222222222</v>
+        <v>3.320277777777778</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1711,18 +1823,26 @@
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>58.72</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
+          <t>36.22</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>64.56</t>
+        </is>
+      </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>50.17</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr"/>
@@ -1742,13 +1862,13 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45902.6525925926</v>
+        <v>45988.01059027778</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7152777777777778</v>
+        <v>3.305</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1768,24 +1888,24 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>91.65</t>
         </is>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>67.84</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>93.01</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>82.84</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr"/>
@@ -1805,13 +1925,13 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45902.72103009259</v>
+        <v>45985.02921296296</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8505555555555555</v>
+        <v>10.00722222222222</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1829,18 +1949,26 @@
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
+          <t>61.52</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>75.82</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr"/>
@@ -1860,13 +1988,13 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45902.80829861111</v>
+        <v>45985.00398148148</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
-        <v>1.1825</v>
+        <v>3.581388888888889</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1886,24 +2014,24 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>96.39</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>68.86</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>96.61</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>83.51</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr"/>
@@ -1923,13 +2051,13 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45901.65430555555</v>
+        <v>45978.07474537037</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>0.06888888888888889</v>
+        <v>3.596666666666667</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1947,18 +2075,26 @@
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>64.77</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
+          <t>40.16</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>59.71</t>
+        </is>
+      </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>45.98</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr"/>
@@ -1978,13 +2114,13 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45902.75333333333</v>
+        <v>45985.06811342593</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3633333333333333</v>
+        <v>4.455833333333334</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2002,18 +2138,26 @@
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
+          <t>64.79</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>79.79</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr"/>
@@ -2033,13 +2177,13 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45900.82763888889</v>
+        <v>45987.57064814815</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5416666666666666</v>
+        <v>24.36388888888889</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2057,18 +2201,26 @@
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>78.13</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
+          <t>52.50</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>80.35</t>
+        </is>
+      </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>66.10</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr"/>
@@ -2088,13 +2240,13 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45902.72572916667</v>
+        <v>45985.17804398148</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9241666666666667</v>
+        <v>8.411666666666667</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2112,18 +2264,26 @@
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
+          <t>65.12</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>79.77</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr"/>
@@ -2143,13 +2303,13 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45902.04625</v>
+        <v>45985.70788194444</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F30" t="n">
-        <v>1.7625</v>
+        <v>10.29166666666667</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2169,24 +2329,24 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>99.69</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>75.26</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>98.98</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>89.56</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr"/>
@@ -2206,13 +2366,13 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45902.84466435185</v>
+        <v>45987.71224537037</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5438888888888889</v>
+        <v>5.511944444444445</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2230,18 +2390,26 @@
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>79.24</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr"/>
@@ -2261,13 +2429,13 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45902.66663194444</v>
+        <v>45986.71650462963</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>0.7494444444444445</v>
+        <v>4.679444444444444</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2287,24 +2455,24 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>87.39</t>
         </is>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>65.79</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>88.30</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>79.74</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr"/>
@@ -2324,13 +2492,13 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45902.75229166666</v>
+        <v>45987.91449074074</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1897222222222222</v>
+        <v>2.069722222222222</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2350,24 +2518,24 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>45.72</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>28.22</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>42.60</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>32.58</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr"/>
@@ -2387,13 +2555,13 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45901.03333333333</v>
+        <v>45985.66504629629</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34" t="n">
-        <v>1.216666666666667</v>
+        <v>7.094166666666666</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2411,18 +2579,26 @@
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>96.01</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
+          <t>69.97</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>96.28</t>
+        </is>
+      </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>84.62</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr"/>
@@ -2442,13 +2618,13 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45902.74335648148</v>
+        <v>45986.96018518518</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1497222222222222</v>
+        <v>6.991666666666666</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2466,18 +2642,26 @@
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr"/>
+          <t>57.75</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>72.05</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr"/>
@@ -2497,13 +2681,13 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45902.04743055555</v>
+        <v>45988.83980324074</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.4538888888888889</v>
+        <v>5.828611111111111</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2521,18 +2705,26 @@
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
+          <t>54.63</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>62.63</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr"/>
@@ -2552,13 +2744,13 @@
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45902.75267361111</v>
+        <v>45986.69061342593</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>1.705</v>
+        <v>7.510833333333333</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2576,18 +2768,26 @@
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr"/>
+          <t>70.20</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>84.50</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr"/>
@@ -2607,13 +2807,13 @@
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45902.66940972222</v>
+        <v>45988.11847222222</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5736111111111111</v>
+        <v>5.268611111111111</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2633,24 +2833,24 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>94.83</t>
         </is>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>66.89</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>94.92</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>81.19</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr"/>
@@ -2670,13 +2870,13 @@
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45902.70052083334</v>
+        <v>45988.87361111111</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4147222222222222</v>
+        <v>8.026944444444444</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2694,18 +2894,26 @@
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr"/>
+          <t>63.54</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>78.54</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr"/>
@@ -2725,13 +2933,13 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45902.78136574074</v>
+        <v>45981.80512731482</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5613888888888889</v>
+        <v>8.171666666666667</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2749,18 +2957,26 @@
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>79.79</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr"/>
+          <t>56.86</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>82.32</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>71.16</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr"/>
@@ -2780,13 +2996,13 @@
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45902.86747685185</v>
+        <v>45985.58042824074</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9038888888888889</v>
+        <v>17.69583333333333</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2804,18 +3020,26 @@
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr"/>
+          <t>68.70</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>83.00</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr"/>
@@ -2835,13 +3059,13 @@
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45902.77055555556</v>
+        <v>45985.05105324074</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F42" t="n">
-        <v>1.107222222222222</v>
+        <v>6.841944444444445</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2859,18 +3083,26 @@
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>96.49</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr"/>
+          <t>63.74</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>96.30</t>
+        </is>
+      </c>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>78.04</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr"/>
@@ -2890,13 +3122,13 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45902.76085648148</v>
+        <v>45988.08736111111</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.6605555555555556</v>
+        <v>10.05222222222222</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2914,25 +3146,33 @@
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr"/>
+          <t>56.73</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>81.79</t>
+        </is>
+      </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>70.33</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5471355</v>
+        <v>5460967</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2945,13 +3185,13 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45897.7869212963</v>
+        <v>45981.60196759259</v>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1361111111111111</v>
+        <v>7.500277777777778</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2965,29 +3205,37 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>U89538272</t>
+          <t>U40448447</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>99.84</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr"/>
+          <t>70.18</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>84.48</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5460967</v>
+        <v>5424509</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3000,13 +3248,13 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45902.75</v>
+        <v>45985.07244212963</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F45" t="n">
-        <v>1.056111111111111</v>
+        <v>5.974166666666667</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -3015,42 +3263,42 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>CGS2100.004F25</t>
+          <t>CGS2100.006F25</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>U40448447</t>
+          <t>U29343913</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>93.74</t>
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>66.93</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>94.81</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>81.93</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5424509</v>
+        <v>5514227</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3063,13 +3311,13 @@
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45902.82674768518</v>
+        <v>45985.56063657408</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F46" t="n">
-        <v>1.263333333333333</v>
+        <v>5.506666666666667</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -3083,29 +3331,37 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>U29343913</t>
+          <t>U18225052</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>66.74</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr"/>
+          <t>47.22</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>72.41</t>
+        </is>
+      </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>62.22</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5514227</v>
+        <v>5461073</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3118,13 +3374,13 @@
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45902.77615740741</v>
+        <v>45985.13837962963</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
-        <v>1.151944444444444</v>
+        <v>3.448055555555555</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -3138,29 +3394,37 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>U18225052</t>
+          <t>U79610851</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr"/>
+          <t>58.83</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>73.83</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5461073</v>
+        <v>5509311</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3173,13 +3437,13 @@
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45902.75738425926</v>
+        <v>45988.76141203703</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6194444444444445</v>
+        <v>3.942222222222222</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -3188,42 +3452,42 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>CGS2100.006F25</t>
+          <t>CGS2100.004F25</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>U79610851</t>
+          <t>U42382724</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>68.14</t>
         </is>
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>44.67</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>72.77</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>58.97</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5509311</v>
+        <v>5424499</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -3236,13 +3500,13 @@
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45902.78190972222</v>
+        <v>45988.7463425926</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.4127777777777778</v>
+        <v>4.805</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -3251,34 +3515,42 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>CGS2100.004F25</t>
+          <t>CGS2100.006F25</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>U42382724</t>
+          <t>U68363391</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>83.28</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr"/>
+          <t>59.29</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>73.94</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5424499</v>
+        <v>5445753</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -3291,13 +3563,13 @@
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45902.78788194444</v>
+        <v>45985.04185185185</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F50" t="n">
-        <v>1.492222222222222</v>
+        <v>6.806666666666667</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3306,34 +3578,42 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>CGS2100.006F25</t>
+          <t>CGS2100.005F25</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>U68363391</t>
+          <t>U82283711</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr"/>
+          <t>69.45</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>84.10</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5445753</v>
+        <v>5442941</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3346,13 +3626,13 @@
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45900.878125</v>
+        <v>45985.08917824074</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3019444444444445</v>
+        <v>3.913333333333334</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3366,29 +3646,37 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>U82283711</t>
+          <t>U86200729</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr"/>
+          <t>59.10</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>72.68</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5441573</v>
+        <v>5423477</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3401,13 +3689,13 @@
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45902.6591550926</v>
+        <v>45988.07232638889</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9766666666666667</v>
+        <v>6.507777777777778</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3416,34 +3704,42 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>CGS2100.006F25</t>
+          <t>CGS2100.005F25</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>U83181594</t>
+          <t>U98943771</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr"/>
+          <t>58.84</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>73.49</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5442941</v>
+        <v>5462983</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3456,13 +3752,13 @@
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45902.1292824074</v>
+        <v>45986.09481481482</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8922222222222222</v>
+        <v>4.445277777777778</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3471,34 +3767,42 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>CGS2100.005F25</t>
+          <t>CGS2100.006F25</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>U86200729</t>
+          <t>U42862649</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr"/>
+          <t>55.49</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>69.44</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5423477</v>
+        <v>5417939</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3511,13 +3815,13 @@
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45902.64217592592</v>
+        <v>45986.0753125</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>3.097777777777778</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3531,29 +3835,37 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>U98943771</t>
+          <t>U65480476</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr"/>
+          <t>62.25</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>76.20</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5462983</v>
+        <v>5467753</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3566,13 +3878,13 @@
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45901.95635416666</v>
+        <v>45985.04603009259</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1180555555555556</v>
+        <v>7.720555555555555</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3581,34 +3893,42 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>CGS2100.006F25</t>
+          <t>CGS2100.005F25</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>U42862649</t>
+          <t>U99402392</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr"/>
+          <t>70.11</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>85.11</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>5417939</v>
+        <v>5364381</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -3621,13 +3941,13 @@
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45902.85556712963</v>
+        <v>45988.90548611111</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.6213888888888889</v>
+        <v>6.6325</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3636,42 +3956,42 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>CGS2100.005F25</t>
+          <t>CGS2100.004F25</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>U65480476</t>
+          <t>U57343061</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>86.47</t>
         </is>
       </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>61.62</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>87.98</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>75.92</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5467753</v>
+        <v>5443651</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -3684,13 +4004,13 @@
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45902.76725694445</v>
+        <v>45988.12885416667</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.885</v>
+        <v>4.301388888888889</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3699,34 +4019,42 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>CGS2100.005F25</t>
+          <t>CGS2100.006F25</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>U99402392</t>
+          <t>U31314007</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>48.84</t>
+        </is>
+      </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr"/>
+          <t>34.16</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>48.78</t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>41.43</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5364381</v>
+        <v>5494731</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -3739,13 +4067,13 @@
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45902.85652777777</v>
+        <v>45987.76118055556</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1233333333333333</v>
+        <v>4.1875</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3754,34 +4082,42 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>CGS2100.004F25</t>
+          <t>CGS2100.006F25</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>U57343061</t>
+          <t>U12448932</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr"/>
+          <t>62.35</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>73.37</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5443651</v>
+        <v>5456443</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -3794,13 +4130,13 @@
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45902.70706018519</v>
+        <v>45988.91390046296</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>1.339722222222222</v>
+        <v>4.9675</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3814,37 +4150,37 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>U31314007</t>
+          <t>U58891940</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>63.38</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>95.50</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>78.38</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5494731</v>
+        <v>5455671</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -3857,13 +4193,13 @@
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45899.95395833333</v>
+        <v>45988.88447916666</v>
       </c>
       <c r="E60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1941666666666667</v>
+        <v>2.771111111111111</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3877,29 +4213,37 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>U12448932</t>
+          <t>U30761602</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>96.95</t>
+        </is>
+      </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr"/>
+          <t>70.69</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>97.07</t>
+        </is>
+      </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>85.34</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5456443</v>
+        <v>5505541</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -3912,13 +4256,13 @@
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45902.86248842593</v>
+        <v>45985.25829861111</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F61" t="n">
-        <v>0.4172222222222222</v>
+        <v>11.31</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3927,34 +4271,42 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>CGS2100.006F25</t>
+          <t>CGS2100.004F25</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>U58891940</t>
+          <t>U82371913</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr"/>
+          <t>68.26</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>83.26</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5455671</v>
+        <v>5459125</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -3967,13 +4319,13 @@
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45900.12482638889</v>
+        <v>45984.67244212963</v>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7197222222222223</v>
+        <v>3.958333333333333</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3982,34 +4334,42 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>CGS2100.006F25</t>
+          <t>CGS2100.005F25</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>U30761602</t>
+          <t>U86144166</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>81.79</t>
+        </is>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr"/>
+          <t>58.21</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>71.81</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5505541</v>
+        <v>5435767</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -4022,13 +4382,13 @@
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45902.11452546297</v>
+        <v>45986.76322916667</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>1.499722222222222</v>
+        <v>6.130277777777778</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -4037,42 +4397,42 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>CGS2100.004F25</t>
+          <t>CGS2100.006F25</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>U82371913</t>
+          <t>U65759115</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>88.54</t>
         </is>
       </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>63.90</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>90.03</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>78.55</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5459125</v>
+        <v>5428741</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -4085,13 +4445,13 @@
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45902.64961805556</v>
+        <v>45986.14759259259</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
-        <v>1.099166666666667</v>
+        <v>4.740833333333334</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -4105,29 +4465,37 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>U86144166</t>
+          <t>U70544732</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>95.92</t>
+        </is>
+      </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr"/>
+          <t>67.15</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>96.23</t>
+        </is>
+      </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>81.80</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5435767</v>
+        <v>5476583</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -4140,13 +4508,13 @@
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>45902.69101851852</v>
+        <v>45988.90243055556</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>1.218611111111111</v>
+        <v>5.031666666666666</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -4155,34 +4523,42 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>CGS2100.006F25</t>
+          <t>CGS2100.004F25</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>U65759115</t>
+          <t>U50600668</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>95.73</t>
+        </is>
+      </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr"/>
+          <t>68.07</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>96.45</t>
+        </is>
+      </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>83.07</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>5428741</v>
+        <v>5445629</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -4195,13 +4571,13 @@
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>45902.65003472222</v>
+        <v>45985.61607638889</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F66" t="n">
-        <v>1.816388888888889</v>
+        <v>7.706666666666667</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -4215,37 +4591,37 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>U70544732</t>
+          <t>U25543676</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>66.60</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>80.90</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>5476583</v>
+        <v>5468003</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -4258,13 +4634,13 @@
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45902.71040509259</v>
+        <v>45986.31209490741</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F67" t="n">
-        <v>0.5088888888888888</v>
+        <v>10.02027777777778</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -4278,29 +4654,37 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>U50600668</t>
+          <t>U80280897</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr"/>
+          <t>48.58</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>62.18</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>5445629</v>
+        <v>5509543</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -4313,13 +4697,13 @@
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>45902.83908564815</v>
+        <v>45985.69787037037</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F68" t="n">
-        <v>0.605</v>
+        <v>2.686666666666667</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -4328,42 +4712,42 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>CGS2100.005F25</t>
+          <t>CGS2100.004F25</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>U25543676</t>
+          <t>U58978086</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>92.61</t>
         </is>
       </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>68.92</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>93.06</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>83.22</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>5468003</v>
+        <v>5550541</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -4376,13 +4760,13 @@
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>45902.68824074074</v>
+        <v>45984.99478009259</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2022222222222222</v>
+        <v>3.549722222222222</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -4391,34 +4775,42 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>CGS2100.004F25</t>
+          <t>CGS2100.005F25</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>U80280897</t>
+          <t>U14663953</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr"/>
+          <t>72.46</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>87.46</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>5509543</v>
+        <v>5453523</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -4431,13 +4823,13 @@
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>45897.53680555556</v>
+        <v>45988.93409722222</v>
       </c>
       <c r="E70" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>9.452500000000001</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -4446,34 +4838,42 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>CGS2100.004F25</t>
+          <t>CGS2100.005F25</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>U58978086</t>
+          <t>U81211862</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>96.52</t>
+        </is>
+      </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr"/>
+          <t>70.36</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>96.71</t>
+        </is>
+      </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>85.01</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>5550541</v>
+        <v>5437107</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -4486,13 +4886,13 @@
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>45901.04040509259</v>
+        <v>45988.08495370371</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>1.158333333333333</v>
+        <v>6.524722222222223</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -4506,29 +4906,37 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>U14663953</t>
+          <t>U56378046</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>97.16</t>
+        </is>
+      </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr"/>
+          <t>67.87</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>96.85</t>
+        </is>
+      </c>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>82.17</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>5453523</v>
+        <v>5482121</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -4541,13 +4949,13 @@
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>45894.95447916666</v>
+        <v>45988.37777777778</v>
       </c>
       <c r="E72" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>1.561666666666667</v>
+        <v>5.180555555555555</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -4556,34 +4964,42 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>CGS2100.005F25</t>
+          <t>CGS2100.006F25</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>U81211862</t>
+          <t>U54693550</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>96.62</t>
+        </is>
+      </c>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr"/>
+          <t>65.40</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>96.79</t>
+        </is>
+      </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>80.05</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>5437107</v>
+        <v>5440805</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -4596,13 +5012,13 @@
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>45902.86328703703</v>
+        <v>45985.1530324074</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F73" t="n">
-        <v>0.7833333333333333</v>
+        <v>4.989722222222222</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -4611,34 +5027,42 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>CGS2100.005F25</t>
+          <t>CGS2100.004F25</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>U56378046</t>
+          <t>U93563677</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr"/>
+          <t>65.87</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>80.87</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>5482121</v>
+        <v>5450619</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -4651,13 +5075,13 @@
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>45902.69518518518</v>
+        <v>45985.14613425926</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
-        <v>0.8188888888888889</v>
+        <v>7.157222222222222</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -4666,42 +5090,42 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>CGS2100.006F25</t>
+          <t>CGS2100.005F25</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>U54693550</t>
+          <t>U03771042</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>99.35</t>
         </is>
       </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>75.00</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>99.46</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>90.00</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>5440805</v>
+        <v>5460711</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -4714,13 +5138,13 @@
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>45902.73023148148</v>
+        <v>45980.15554398148</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>5.528055555555556</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -4729,34 +5153,42 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>CGS2100.004F25</t>
+          <t>CGS2100.005F25</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>U93563677</t>
+          <t>U93253028</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>69.96</t>
+        </is>
+      </c>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr"/>
+          <t>46.18</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>70.15</t>
+        </is>
+      </c>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>56.85</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>5450619</v>
+        <v>5437363</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -4769,13 +5201,13 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>45902.04758101852</v>
+        <v>45985.1997337963</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F76" t="n">
-        <v>0.7691666666666667</v>
+        <v>4.1025</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4784,34 +5216,42 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>CGS2100.005F25</t>
+          <t>CGS2100.004F25</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>U03771042</t>
+          <t>U36215823</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>66.74</t>
+        </is>
+      </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr"/>
+          <t>47.22</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>68.27</t>
+        </is>
+      </c>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>58.58</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>5460711</v>
+        <v>5451075</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -4824,13 +5264,13 @@
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>45897.70733796297</v>
+        <v>45985.73908564815</v>
       </c>
       <c r="E77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F77" t="n">
-        <v>1.083611111111111</v>
+        <v>7.646388888888889</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4839,34 +5279,42 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>CGS2100.005F25</t>
+          <t>CGS2100.006F25</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>U93253028</t>
+          <t>U17828081</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr"/>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>86.97</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>5437363</v>
+        <v>5450309</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -4879,13 +5327,13 @@
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>45902.6862962963</v>
+        <v>45986.1216087963</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F78" t="n">
-        <v>1.468055555555555</v>
+        <v>2.97</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4899,29 +5347,37 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>U36215823</t>
+          <t>U36059164</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>82.71</t>
+        </is>
+      </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr"/>
+          <t>58.80</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>72.37</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>5451075</v>
+        <v>5457911</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -4934,13 +5390,13 @@
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>45902.03625</v>
+        <v>45986.28337962963</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F79" t="n">
-        <v>1.070555555555555</v>
+        <v>11.80055555555556</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4949,42 +5405,42 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>CGS2100.006F25</t>
+          <t>CGS2100.005F25</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>U17828081</t>
+          <t>U33938805</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>92.91</t>
         </is>
       </c>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>66.66</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>74.66</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>5450309</v>
+        <v>5422181</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -4997,13 +5453,13 @@
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>45902.70510416666</v>
+        <v>45984.96587962963</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1913888888888889</v>
+        <v>6.218888888888888</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -5017,29 +5473,37 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>U36059164</t>
+          <t>U74392368</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>100.51</t>
+        </is>
+      </c>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr"/>
+          <t>69.89</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>100.42</t>
+        </is>
+      </c>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>84.89</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>5457911</v>
+        <v>5491577</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -5052,13 +5516,13 @@
         </is>
       </c>
       <c r="D81" s="2" t="n">
-        <v>45899.14289351852</v>
+        <v>45984.16180555556</v>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F81" t="n">
-        <v>0.3219444444444444</v>
+        <v>2.843333333333333</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -5067,34 +5531,42 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>CGS2100.005F25</t>
+          <t>CGS2100.006F25</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>U33938805</t>
+          <t>U38791813</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr"/>
+          <t>67.87</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>75.87</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>5422181</v>
+        <v>5461971</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -5107,13 +5579,13 @@
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>45902.65452546296</v>
+        <v>45985.98599537037</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F82" t="n">
-        <v>0.8011111111111111</v>
+        <v>3.713055555555556</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -5122,42 +5594,42 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>CGS2100.004F25</t>
+          <t>CGS2100.005F25</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>U74392368</t>
+          <t>U25454805</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>93.83</t>
         </is>
       </c>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>70.75</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>93.70</t>
         </is>
       </c>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>84.70</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>5491577</v>
+        <v>5518159</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -5170,13 +5642,13 @@
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>45902.83199074074</v>
+        <v>45985.92277777778</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F83" t="n">
-        <v>0.4597222222222222</v>
+        <v>5.340555555555556</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -5190,29 +5662,37 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>U38791813</t>
+          <t>U10739409</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>95.39</t>
+        </is>
+      </c>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr"/>
+          <t>69.36</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>84.01</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>5461971</v>
+        <v>5444029</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -5225,13 +5705,13 @@
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>45902.65452546296</v>
+        <v>45986.9024537037</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>1.181388888888889</v>
+        <v>8.491944444444444</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -5240,42 +5720,42 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>CGS2100.005F25</t>
+          <t>CGS2100.004F25</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>U25454805</t>
+          <t>U99175794</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>95.19</t>
         </is>
       </c>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>68.42</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>95.98</t>
         </is>
       </c>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>83.42</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>5518159</v>
+        <v>5424997</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -5288,13 +5768,13 @@
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>45902.02311342592</v>
+        <v>45986.75851851852</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.2852777777777778</v>
+        <v>4.4875</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -5303,34 +5783,42 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>CGS2100.006F25</t>
+          <t>CGS2100.005F25</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>U10739409</t>
+          <t>U49579805</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr"/>
+          <t>57.76</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>72.06</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>5444029</v>
+        <v>5281601</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -5343,13 +5831,13 @@
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>45902.8437037037</v>
+        <v>45988.19802083333</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>0.7322222222222222</v>
+        <v>3.856111111111111</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -5358,34 +5846,42 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>CGS2100.004F25</t>
+          <t>CGS2100.006F25</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>U99175794</t>
+          <t>U41506534</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr"/>
+          <t>59.09</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>73.04</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>5424997</v>
+        <v>5435991</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -5398,13 +5894,13 @@
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>45894.7733912037</v>
+        <v>45988.09436342592</v>
       </c>
       <c r="E87" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0.6497222222222222</v>
+        <v>7.165833333333333</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -5413,34 +5909,42 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>CGS2100.005F25</t>
+          <t>CGS2100.006F25</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>U49579805</t>
+          <t>U06172999</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr"/>
+          <t>65.42</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>80.42</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>5491267</v>
+        <v>5081715</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -5453,13 +5957,13 @@
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>45902.23204861111</v>
+        <v>45985.55581018519</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F88" t="n">
-        <v>0.09111111111111111</v>
+        <v>90.47083333333333</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -5473,29 +5977,37 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>U14474570</t>
+          <t>U05070546</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr"/>
+          <t>69.77</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>83.72</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>5281601</v>
+        <v>5492041</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -5507,10 +6019,14 @@
           <t>StudentEnrollment</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
+      <c r="D89" s="2" t="n">
+        <v>45988.69818287037</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>4.615</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -5524,29 +6040,37 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>U41506534</t>
+          <t>U01366279</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr"/>
+          <t>64.66</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>72.66</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>5435991</v>
+        <v>5439943</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -5559,13 +6083,13 @@
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>45902.68223379629</v>
+        <v>45987.05118055556</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.8702777777777778</v>
+        <v>3.559722222222222</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -5574,34 +6098,42 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>CGS2100.006F25</t>
+          <t>CGS2100.004F25</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>U06172999</t>
+          <t>U07119104</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr"/>
+          <t>64.35</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>79.35</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>5081715</v>
+        <v>5444847</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -5614,13 +6146,13 @@
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>45902.83929398148</v>
+        <v>45987.905</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1486111111111111</v>
+        <v>6.261666666666667</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -5629,34 +6161,42 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>CGS2100.004F25</t>
+          <t>CGS2100.005F25</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>U05070546</t>
+          <t>U13269873</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr"/>
+          <t>68.30</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>82.25</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>5492041</v>
+        <v>5453187</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -5669,13 +6209,13 @@
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>45902.68591435185</v>
+        <v>45984.8950462963</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F92" t="n">
-        <v>2.026944444444445</v>
+        <v>8.262222222222222</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -5689,29 +6229,37 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>U01366279</t>
+          <t>U37970066</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>59.39</t>
+        </is>
+      </c>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr"/>
+          <t>36.83</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>65.84</t>
+        </is>
+      </c>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>51.48</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>5484281</v>
+        <v>5422503</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -5724,13 +6272,13 @@
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>45902.70965277778</v>
+        <v>45985.14126157408</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F93" t="n">
-        <v>1.114444444444444</v>
+        <v>7.8475</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -5744,29 +6292,37 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>U02579274</t>
+          <t>U79450310</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr"/>
+          <t>75.46</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>99.96</t>
+        </is>
+      </c>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>90.46</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>5439943</v>
+        <v>5439123</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -5779,13 +6335,13 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>45902.84122685185</v>
+        <v>45988.66234953704</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.6811111111111111</v>
+        <v>5.849722222222222</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -5799,37 +6355,37 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>U07119104</t>
+          <t>U08947162</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>87.84</t>
         </is>
       </c>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>10.89</t>
+          <t>60.24</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>89.11</t>
         </is>
       </c>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>10.89</t>
+          <t>74.54</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>5444847</v>
+        <v>5433495</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -5842,13 +6398,13 @@
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>45902.70341435185</v>
+        <v>45986.00666666667</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3647222222222222</v>
+        <v>5.516944444444444</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -5862,29 +6418,37 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>U13269873</t>
+          <t>U79498914</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr"/>
+          <t>57.64</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>71.21</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>5453187</v>
+        <v>5505211</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -5897,13 +6461,13 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>45902.70767361111</v>
+        <v>45952.83309027777</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F96" t="n">
-        <v>2.304722222222222</v>
+        <v>1.477222222222222</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -5912,34 +6476,42 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>CGS2100.006F25</t>
+          <t>CGS2100.004F25</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>U37970066</t>
+          <t>U73679071</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>21.43</t>
+        </is>
+      </c>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr"/>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>14.03</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>5422503</v>
+        <v>5307255</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -5952,13 +6524,13 @@
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>45902.85130787037</v>
+        <v>45988.14591435185</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.8130555555555555</v>
+        <v>12.96861111111111</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5967,34 +6539,42 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>CGS2100.006F25</t>
+          <t>CGS2100.004F25</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>U79450310</t>
+          <t>U21728770</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr"/>
+          <t>64.27</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>79.27</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>5439123</v>
+        <v>5289449</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -6007,13 +6587,13 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>45902.79488425926</v>
+        <v>45985.22386574074</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F98" t="n">
-        <v>0.4313888888888889</v>
+        <v>3.536944444444444</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -6027,29 +6607,37 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>U08947162</t>
+          <t>U97887726</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>74.80</t>
+        </is>
+      </c>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr"/>
+          <t>55.48</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>63.48</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>5433495</v>
+        <v>5461269</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -6062,13 +6650,13 @@
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>45900.81438657407</v>
+        <v>45985.16284722222</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>6.248888888888889</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -6077,34 +6665,42 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>CGS2100.005F25</t>
+          <t>CGS2100.006F25</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>U79498914</t>
+          <t>U38545765</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr"/>
+          <t>62.28</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>95.16</t>
+        </is>
+      </c>
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>77.28</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>5505211</v>
+        <v>5297339</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -6117,13 +6713,13 @@
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>45901.12553240741</v>
+        <v>45983.00462962963</v>
       </c>
       <c r="E100" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F100" t="n">
-        <v>0.6463888888888889</v>
+        <v>7.241111111111111</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -6137,29 +6733,37 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>U73679071</t>
+          <t>U21931526</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr"/>
+          <t>71.28</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>86.28</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>5307255</v>
+        <v>5442973</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -6172,13 +6776,13 @@
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>45902.85428240741</v>
+        <v>45986.68482638889</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F101" t="n">
-        <v>0.6838888888888889</v>
+        <v>5.899166666666667</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -6187,42 +6791,42 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>CGS2100.004F25</t>
+          <t>CGS2100.006F25</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>U21728770</t>
+          <t>U16851559</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
-          <t>66.67</t>
+          <t>78.61</t>
         </is>
       </c>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>55.88</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>66.67</t>
+          <t>74.30</t>
         </is>
       </c>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>63.88</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>5289449</v>
+        <v>5514139</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -6235,13 +6839,13 @@
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>45894.69096064815</v>
+        <v>45987.01003472223</v>
       </c>
       <c r="E102" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.05916666666666667</v>
+        <v>6.967777777777778</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -6250,34 +6854,42 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>CGS2100.004F25</t>
+          <t>CGS2100.006F25</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>U97887726</t>
+          <t>U81737729</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N102" t="inlineStr"/>
+          <t>62.13</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>77.13</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>5461269</v>
+        <v>5477165</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -6290,13 +6902,13 @@
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>45900.96663194444</v>
+        <v>45985.08957175926</v>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F103" t="n">
-        <v>0.5863888888888888</v>
+        <v>2.524166666666666</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -6310,29 +6922,37 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>U38545765</t>
+          <t>U51339994</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>76.97</t>
+        </is>
+      </c>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N103" t="inlineStr"/>
+          <t>50.63</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>65.63</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>5297339</v>
+        <v>5455515</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -6345,13 +6965,13 @@
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>45902.67201388889</v>
+        <v>45982.86013888889</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F104" t="n">
-        <v>1.240833333333333</v>
+        <v>9.338333333333333</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -6360,34 +6980,42 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>CGS2100.004F25</t>
+          <t>CGS2100.005F25</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>U21931526</t>
+          <t>U29774997</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>97.64</t>
+        </is>
+      </c>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N104" t="inlineStr"/>
+          <t>65.80</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>97.64</t>
+        </is>
+      </c>
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>80.45</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>5442973</v>
+        <v>5353383</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -6400,13 +7028,13 @@
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>45902.76101851852</v>
+        <v>45987.08943287037</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>1.268055555555555</v>
+        <v>3.790833333333333</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -6420,29 +7048,37 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>U16851559</t>
+          <t>U40339241</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N105" t="inlineStr"/>
+          <t>68.02</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>95.88</t>
+        </is>
+      </c>
       <c r="O105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>83.02</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>5514139</v>
+        <v>5356627</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -6455,13 +7091,13 @@
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>45899.59596064815</v>
+        <v>45987.1328125</v>
       </c>
       <c r="E106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.5258333333333334</v>
+        <v>4.890277777777778</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -6470,34 +7106,42 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>CGS2100.006F25</t>
+          <t>CGS2100.005F25</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>U81737729</t>
+          <t>U22379564</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N106" t="inlineStr"/>
+          <t>64.39</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
       <c r="O106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>78.69</t>
         </is>
       </c>
       <c r="Q106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>5477165</v>
+        <v>5521235</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -6510,13 +7154,13 @@
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>45902.10424768519</v>
+        <v>45983.9434375</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8772222222222222</v>
+        <v>8.070277777777777</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -6530,37 +7174,37 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>U51339994</t>
+          <t>U67596792</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>100.97</t>
         </is>
       </c>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>73.79</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>100.82</t>
         </is>
       </c>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>88.79</t>
         </is>
       </c>
       <c r="Q107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>5455515</v>
+        <v>5520769</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -6573,13 +7217,13 @@
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>45902.68649305555</v>
+        <v>45987.96123842592</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>2.050555555555555</v>
+        <v>1.814444444444445</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -6588,34 +7232,42 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>CGS2100.005F25</t>
+          <t>CGS2100.004F25</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>U29774997</t>
+          <t>U17812625</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
       <c r="L108" t="inlineStr"/>
       <c r="M108" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N108" t="inlineStr"/>
+          <t>57.52</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>76.86</t>
+        </is>
+      </c>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>65.52</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>5353383</v>
+        <v>5426829</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -6628,13 +7280,13 @@
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>45902.77751157407</v>
+        <v>45987.70795138889</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.7266666666666667</v>
+        <v>26.06027777777778</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -6643,34 +7295,42 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>CGS2100.006F25</t>
+          <t>CGS2100.004F25</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>U40339241</t>
+          <t>U71981925</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N109" t="inlineStr"/>
+          <t>71.01</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
       <c r="O109" t="inlineStr"/>
       <c r="P109" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>86.01</t>
         </is>
       </c>
       <c r="Q109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>5356627</v>
+        <v>5467947</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -6683,13 +7343,13 @@
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>45895.91148148148</v>
+        <v>45984.75971064815</v>
       </c>
       <c r="E110" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9897222222222222</v>
+        <v>3.140277777777778</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -6698,34 +7358,42 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>CGS2100.005F25</t>
+          <t>CGS2100.006F25</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>U22379564</t>
+          <t>U45789693</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>35.24</t>
+        </is>
+      </c>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N110" t="inlineStr"/>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>35.93</t>
+        </is>
+      </c>
       <c r="O110" t="inlineStr"/>
       <c r="P110" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>27.67</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>5521235</v>
+        <v>5430853</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -6738,13 +7406,13 @@
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>45902.72644675926</v>
+        <v>45985.20648148148</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F111" t="n">
-        <v>0.7013888888888888</v>
+        <v>5.675277777777778</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -6753,42 +7421,42 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>CGS2100.006F25</t>
+          <t>CGS2100.005F25</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>U67596792</t>
+          <t>U66986832</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>88.10</t>
         </is>
       </c>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>61.77</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>89.28</t>
         </is>
       </c>
       <c r="O111" t="inlineStr"/>
       <c r="P111" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>76.07</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>5520769</v>
+        <v>5499471</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -6801,13 +7469,13 @@
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>45897.71966435185</v>
+        <v>45986.93445601852</v>
       </c>
       <c r="E112" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.07000000000000001</v>
+        <v>3.317777777777778</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -6816,34 +7484,42 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>CGS2100.004F25</t>
+          <t>CGS2100.005F25</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>U17812625</t>
+          <t>U71944336</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>97.29</t>
+        </is>
+      </c>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N112" t="inlineStr"/>
+          <t>73.41</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>97.73</t>
+        </is>
+      </c>
       <c r="O112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>88.41</t>
         </is>
       </c>
       <c r="Q112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>5426829</v>
+        <v>5429715</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -6856,13 +7532,13 @@
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>45902.86731481482</v>
+        <v>45988.09608796296</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>2.311944444444444</v>
+        <v>13.47861111111111</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -6876,29 +7552,37 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>U71981925</t>
+          <t>U96946439</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>77.78</t>
+        </is>
+      </c>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N113" t="inlineStr"/>
+          <t>53.55</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
       <c r="O113" t="inlineStr"/>
       <c r="P113" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>67.85</t>
         </is>
       </c>
       <c r="Q113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>5467947</v>
+        <v>5294545</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -6911,13 +7595,13 @@
         </is>
       </c>
       <c r="D114" s="2" t="n">
-        <v>45902.66326388889</v>
+        <v>45985.14549768518</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F114" t="n">
-        <v>1.236388888888889</v>
+        <v>4.8925</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -6931,29 +7615,37 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>U45789693</t>
+          <t>U52598096</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>80.25</t>
+        </is>
+      </c>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N114" t="inlineStr"/>
+          <t>57.08</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
       <c r="O114" t="inlineStr"/>
       <c r="P114" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>71.73</t>
         </is>
       </c>
       <c r="Q114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>5430853</v>
+        <v>5441237</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -6966,13 +7658,13 @@
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>45894.80186342593</v>
+        <v>45985.82888888889</v>
       </c>
       <c r="E115" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F115" t="n">
-        <v>0.3086111111111111</v>
+        <v>10.85805555555556</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -6981,34 +7673,42 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>CGS2100.005F25</t>
+          <t>CGS2100.004F25</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>U66986832</t>
+          <t>U44407903</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N115" t="inlineStr"/>
+          <t>72.88</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
       <c r="O115" t="inlineStr"/>
       <c r="P115" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>87.88</t>
         </is>
       </c>
       <c r="Q115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>5499471</v>
+        <v>5465141</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -7021,13 +7721,13 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>45902.6909837963</v>
+        <v>45985.68678240741</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F116" t="n">
-        <v>0.7280555555555556</v>
+        <v>9.624166666666667</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -7036,42 +7736,42 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>CGS2100.005F25</t>
+          <t>CGS2100.006F25</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>U71944336</t>
+          <t>U29098754</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>70.47</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>92.63</t>
         </is>
       </c>
       <c r="O116" t="inlineStr"/>
       <c r="P116" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>83.72</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>5429715</v>
+        <v>5451313</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -7084,13 +7784,13 @@
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>45902.83645833333</v>
+        <v>45985.88398148148</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F117" t="n">
-        <v>0.6616666666666666</v>
+        <v>3.021111111111111</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -7099,42 +7799,42 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>CGS2100.004F25</t>
+          <t>CGS2100.006F25</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>U96946439</t>
+          <t>U45703466</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>49.16</t>
         </is>
       </c>
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>33.14</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>57.83</t>
         </is>
       </c>
       <c r="O117" t="inlineStr"/>
       <c r="P117" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>48.14</t>
         </is>
       </c>
       <c r="Q117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>5294545</v>
+        <v>5455973</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -7147,13 +7847,13 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>45901.92255787037</v>
+        <v>45985.67322916666</v>
       </c>
       <c r="E118" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F118" t="n">
-        <v>0.1002777777777778</v>
+        <v>8.093611111111111</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -7162,34 +7862,42 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>CGS2100.006F25</t>
+          <t>CGS2100.005F25</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>U52598096</t>
+          <t>U02194890</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N118" t="inlineStr"/>
+          <t>58.19</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>82.88</t>
+        </is>
+      </c>
       <c r="O118" t="inlineStr"/>
       <c r="P118" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>71.44</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>5441237</v>
+        <v>5491039</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -7202,13 +7910,13 @@
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>45902.00128472222</v>
+        <v>45985.65502314815</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F119" t="n">
-        <v>0.5772222222222222</v>
+        <v>6.000277777777778</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -7217,34 +7925,42 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>CGS2100.004F25</t>
+          <t>CGS2100.005F25</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>U44407903</t>
+          <t>U89227368</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>74.31</t>
+        </is>
+      </c>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N119" t="inlineStr"/>
+          <t>52.02</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>70.61</t>
+        </is>
+      </c>
       <c r="O119" t="inlineStr"/>
       <c r="P119" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>60.02</t>
         </is>
       </c>
       <c r="Q119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>5465141</v>
+        <v>5437763</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -7257,13 +7973,13 @@
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>45902.76359953704</v>
+        <v>45985.17939814815</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5588888888888889</v>
+        <v>3.411944444444444</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -7272,34 +7988,42 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>CGS2100.006F25</t>
+          <t>CGS2100.004F25</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>U29098754</t>
+          <t>U46704290</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N120" t="inlineStr"/>
+          <t>75.05</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
       <c r="O120" t="inlineStr"/>
       <c r="P120" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>90.05</t>
         </is>
       </c>
       <c r="Q120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>5451313</v>
+        <v>5515911</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -7312,13 +8036,13 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>45902.68636574074</v>
+        <v>45986.96333333333</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>1.215555555555556</v>
+        <v>14.4275</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -7332,29 +8056,37 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>U45703466</t>
+          <t>U82755125</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N121" t="inlineStr"/>
+          <t>64.43</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
       <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>79.08</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>5455973</v>
+        <v>5440815</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -7367,13 +8099,13 @@
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>45902.09915509259</v>
+        <v>45988.15162037037</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>6.9875</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -7387,29 +8119,37 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>U02194890</t>
+          <t>U34719280</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N122" t="inlineStr"/>
+          <t>61.98</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
       <c r="O122" t="inlineStr"/>
       <c r="P122" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>76.28</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>5491039</v>
+        <v>5449413</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -7422,13 +8162,13 @@
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>45898.00550925926</v>
+        <v>45985.17369212963</v>
       </c>
       <c r="E123" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F123" t="n">
-        <v>0.2208333333333333</v>
+        <v>3.887222222222222</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -7437,34 +8177,42 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>CGS2100.005F25</t>
+          <t>CGS2100.004F25</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>U89227368</t>
+          <t>U18894941</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N123" t="inlineStr"/>
+          <t>58.64</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
       <c r="O123" t="inlineStr"/>
       <c r="P123" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>72.57</t>
         </is>
       </c>
       <c r="Q123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>5437763</v>
+        <v>5484463</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -7477,13 +8225,13 @@
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>45901.75326388889</v>
+        <v>45987.61065972222</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.4</v>
+        <v>8.034722222222221</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -7492,42 +8240,42 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>CGS2100.004F25</t>
+          <t>CGS2100.005F25</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>U46704290</t>
+          <t>U96796911</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>62.95</t>
         </is>
       </c>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>46.97</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>61.38</t>
         </is>
       </c>
       <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>54.97</t>
         </is>
       </c>
       <c r="Q124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>5515911</v>
+        <v>5427449</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -7540,13 +8288,13 @@
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>45902.70643518519</v>
+        <v>45987.78052083333</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9377777777777778</v>
+        <v>21.46944444444444</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -7560,29 +8308,37 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>U82755125</t>
+          <t>U25688628</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>96.31</t>
+        </is>
+      </c>
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N125" t="inlineStr"/>
+          <t>68.03</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>96.15</t>
+        </is>
+      </c>
       <c r="O125" t="inlineStr"/>
       <c r="P125" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>82.33</t>
         </is>
       </c>
       <c r="Q125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>5440815</v>
+        <v>5445787</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -7595,13 +8351,13 @@
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>45902.69425925926</v>
+        <v>45980.89334490741</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F126" t="n">
-        <v>0.2572222222222222</v>
+        <v>3.814166666666666</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -7615,29 +8371,37 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>U34719280</t>
+          <t>U34499758</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N126" t="inlineStr"/>
+          <t>66.27</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
       <c r="O126" t="inlineStr"/>
       <c r="P126" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>80.57</t>
         </is>
       </c>
       <c r="Q126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>5449413</v>
+        <v>5517923</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -7650,13 +8414,13 @@
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>45902.79681712963</v>
+        <v>45988.0900925926</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.105</v>
+        <v>7.620277777777778</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -7665,34 +8429,42 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>CGS2100.004F25</t>
+          <t>CGS2100.006F25</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>U18894941</t>
+          <t>U28773008</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>72.99</t>
+        </is>
+      </c>
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N127" t="inlineStr"/>
+          <t>51.78</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
       <c r="O127" t="inlineStr"/>
       <c r="P127" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>66.43</t>
         </is>
       </c>
       <c r="Q127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>5484463</v>
+        <v>5447767</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -7705,13 +8477,13 @@
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>45898.06045138889</v>
+        <v>45986.89355324074</v>
       </c>
       <c r="E128" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>1.065555555555556</v>
+        <v>10.15472222222222</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -7720,34 +8492,42 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>CGS2100.005F25</t>
+          <t>CGS2100.006F25</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>U96796911</t>
+          <t>U30958077</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N128" t="inlineStr"/>
+          <t>67.84</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>95.35</t>
+        </is>
+      </c>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>82.84</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>5427449</v>
+        <v>5469493</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -7760,13 +8540,13 @@
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>45901.80547453704</v>
+        <v>45985.02864583334</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F129" t="n">
-        <v>5.836111111111111</v>
+        <v>4.415</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -7775,42 +8555,42 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>CGS2100.006F25</t>
+          <t>CGS2100.004F25</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>U25688628</t>
+          <t>U12463633</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
-          <t>66.67</t>
+          <t>64.57</t>
         </is>
       </c>
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>44.83</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>66.67</t>
+          <t>68.06</t>
         </is>
       </c>
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>57.73</t>
         </is>
       </c>
       <c r="Q129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>5445787</v>
+        <v>5531345</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -7823,13 +8603,13 @@
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>45902.63105324074</v>
+        <v>45988.07986111111</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>1.038055555555556</v>
+        <v>10.4425</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -7838,34 +8618,42 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>CGS2100.005F25</t>
+          <t>CGS2100.006F25</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>U34499758</t>
+          <t>U69522336</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N130" t="inlineStr"/>
+          <t>74.95</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>89.60</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>5517923</v>
+        <v>5433743</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -7878,13 +8666,13 @@
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>45902.78196759259</v>
+        <v>45988.48278935185</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0.3844444444444444</v>
+        <v>4.322777777777778</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -7893,34 +8681,42 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>CGS2100.006F25</t>
+          <t>CGS2100.004F25</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>U28773008</t>
+          <t>U65627607</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>68.59</t>
+        </is>
+      </c>
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N131" t="inlineStr"/>
+          <t>44.51</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>65.90</t>
+        </is>
+      </c>
       <c r="O131" t="inlineStr"/>
       <c r="P131" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>52.51</t>
         </is>
       </c>
       <c r="Q131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>5447767</v>
+        <v>5492213</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -7933,13 +8729,13 @@
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>45902.7246875</v>
+        <v>45981.17688657407</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F132" t="n">
-        <v>1.900555555555556</v>
+        <v>4.585555555555556</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -7948,42 +8744,42 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>CGS2100.006F25</t>
+          <t>CGS2100.004F25</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>U30958077</t>
+          <t>U46179377</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>74.05</t>
         </is>
       </c>
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>46.63</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>70.16</t>
         </is>
       </c>
       <c r="O132" t="inlineStr"/>
       <c r="P132" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>54.63</t>
         </is>
       </c>
       <c r="Q132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>5469493</v>
+        <v>5458301</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -7996,13 +8792,13 @@
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>45902.67576388889</v>
+        <v>45985.67359953704</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F133" t="n">
-        <v>0.2280555555555556</v>
+        <v>5.548611111111111</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -8016,29 +8812,37 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>U12463633</t>
+          <t>U29789156</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N133" t="inlineStr"/>
+          <t>73.23</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
       <c r="O133" t="inlineStr"/>
       <c r="P133" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>88.23</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>5531345</v>
+        <v>5447857</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -8051,13 +8855,13 @@
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>45902.70071759259</v>
+        <v>45985.92016203704</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F134" t="n">
-        <v>1.353888888888889</v>
+        <v>5.775277777777778</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -8066,34 +8870,42 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>CGS2100.006F25</t>
+          <t>CGS2100.004F25</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>U69522336</t>
+          <t>U46733156</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N134" t="inlineStr"/>
+          <t>67.37</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
       <c r="O134" t="inlineStr"/>
       <c r="P134" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>82.37</t>
         </is>
       </c>
       <c r="Q134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>5433743</v>
+        <v>5488283</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -8106,13 +8918,13 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45894.86128472222</v>
+        <v>45985.71835648148</v>
       </c>
       <c r="E135" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>9.377222222222223</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -8121,34 +8933,42 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>CGS2100.004F25</t>
+          <t>CGS2100.005F25</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>U65627607</t>
+          <t>U61619689</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>95.88</t>
+        </is>
+      </c>
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N135" t="inlineStr"/>
+          <t>67.12</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
       <c r="O135" t="inlineStr"/>
       <c r="P135" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>81.42</t>
         </is>
       </c>
       <c r="Q135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>5492213</v>
+        <v>5458819</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -8161,13 +8981,13 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45902.72950231482</v>
+        <v>45985.71371527778</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F136" t="n">
-        <v>1.140277777777778</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -8176,34 +8996,42 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>CGS2100.004F25</t>
+          <t>CGS2100.005F25</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>U46179377</t>
+          <t>U67924977</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>96.68</t>
+        </is>
+      </c>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N136" t="inlineStr"/>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
       <c r="O136" t="inlineStr"/>
       <c r="P136" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>87.59</t>
         </is>
       </c>
       <c r="Q136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>5458301</v>
+        <v>5520273</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -8216,13 +9044,13 @@
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>45902.80233796296</v>
+        <v>45988.17164351852</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>0.3016666666666667</v>
+        <v>54.51</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -8236,37 +9064,37 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>U29789156</t>
+          <t>U72595942</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>97.35</t>
         </is>
       </c>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>68.14</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>97.82</t>
         </is>
       </c>
       <c r="O137" t="inlineStr"/>
       <c r="P137" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>83.14</t>
         </is>
       </c>
       <c r="Q137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>5447857</v>
+        <v>5434187</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -8279,13 +9107,13 @@
         </is>
       </c>
       <c r="D138" s="2" t="n">
-        <v>45902.12476851852</v>
+        <v>45985.11959490741</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F138" t="n">
-        <v>1.203611111111111</v>
+        <v>5.338611111111111</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -8299,29 +9127,37 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>U46733156</t>
+          <t>U63645704</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>97.91</t>
+        </is>
+      </c>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N138" t="inlineStr"/>
+          <t>69.98</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
       <c r="O138" t="inlineStr"/>
       <c r="P138" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>84.98</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>5488283</v>
+        <v>5490107</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -8334,13 +9170,13 @@
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>45902.8465162037</v>
+        <v>45985.11328703703</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F139" t="n">
-        <v>0.4777777777777778</v>
+        <v>15.48416666666667</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -8349,34 +9185,42 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>CGS2100.005F25</t>
+          <t>CGS2100.006F25</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>U61619689</t>
+          <t>U50965216</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>72.55</t>
+        </is>
+      </c>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N139" t="inlineStr"/>
+          <t>49.97</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>64.62</t>
         </is>
       </c>
       <c r="Q139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>5458819</v>
+        <v>5463523</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -8389,13 +9233,13 @@
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>45902.73336805555</v>
+        <v>45988.04163194444</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9227777777777778</v>
+        <v>5.999166666666667</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -8404,42 +9248,42 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>CGS2100.005F25</t>
+          <t>CGS2100.006F25</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>U67924977</t>
+          <t>U00985357</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>69.49</t>
         </is>
       </c>
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>44.86</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>74.30</t>
         </is>
       </c>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>59.51</t>
         </is>
       </c>
       <c r="Q140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>5520273</v>
+        <v>5516823</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -8452,13 +9296,13 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>45897.76701388889</v>
+        <v>45964.93935185186</v>
       </c>
       <c r="E141" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F141" t="n">
-        <v>1.29</v>
+        <v>2.214722222222222</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -8472,29 +9316,37 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>U72595942</t>
+          <t>U12834406</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>38.54</t>
+        </is>
+      </c>
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N141" t="inlineStr"/>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>41.06</t>
+        </is>
+      </c>
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>29.57</t>
         </is>
       </c>
       <c r="Q141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>5434187</v>
+        <v>5447643</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -8507,13 +9359,13 @@
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>45902.8566087963</v>
+        <v>45987.73677083333</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.5705555555555556</v>
+        <v>6.014444444444444</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -8522,34 +9374,42 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>CGS2100.004F25</t>
+          <t>CGS2100.006F25</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>U63645704</t>
+          <t>U72428741</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N142" t="inlineStr"/>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>87.35</t>
         </is>
       </c>
       <c r="Q142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>5490107</v>
+        <v>5505917</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -8562,13 +9422,13 @@
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>45902.78460648148</v>
+        <v>45986.20135416667</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F143" t="n">
-        <v>0.8313888888888888</v>
+        <v>4.317222222222222</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -8577,34 +9437,42 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>CGS2100.006F25</t>
+          <t>CGS2100.005F25</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>U50965216</t>
+          <t>U19249030</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N143" t="inlineStr"/>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>80.13</t>
         </is>
       </c>
       <c r="Q143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>5463523</v>
+        <v>5434619</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -8617,13 +9485,13 @@
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>45902.64922453704</v>
+        <v>45986.10951388889</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F144" t="n">
-        <v>1.600555555555556</v>
+        <v>12.08222222222222</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -8632,34 +9500,42 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>CGS2100.006F25</t>
+          <t>CGS2100.005F25</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>U00985357</t>
+          <t>U02475384</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N144" t="inlineStr"/>
+          <t>68.70</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>83.00</t>
         </is>
       </c>
       <c r="Q144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>5516823</v>
+        <v>5299657</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -8672,13 +9548,13 @@
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>45897.04950231482</v>
+        <v>45986.01637731482</v>
       </c>
       <c r="E145" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F145" t="n">
-        <v>0.6288888888888889</v>
+        <v>1.746944444444444</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -8692,29 +9568,37 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>U12834406</t>
+          <t>U08103433</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr">
         <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="N145" t="inlineStr"/>
+          <t>65.65</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>97.44</t>
+        </is>
+      </c>
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>80.65</t>
         </is>
       </c>
       <c r="Q145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>5447643</v>
+        <v>5441311</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -8727,13 +9611,13 @@
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>45902.71991898148</v>
+        <v>45984.86164351852</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F146" t="n">
-        <v>0.4355555555555555</v>
+        <v>3.127222222222222</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -8747,56 +9631,56 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>U72428741</t>
+          <t>U54046909</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>84.08</t>
         </is>
       </c>
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>55.11</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>71.40</t>
         </is>
       </c>
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>56.56</t>
         </is>
       </c>
       <c r="Q146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>5505917</v>
+        <v>4234222</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TaEnrollment</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TaEnrollment</t>
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>45901.93621527778</v>
+        <v>45981.60909722222</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F147" t="n">
-        <v>0.4375</v>
+        <v>12.95138888888889</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -8805,53 +9689,45 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>CGS2100.005F25</t>
+          <t>CGS2100.004F25</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>U19249030</t>
+          <t>U79359517</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="P147" t="inlineStr"/>
       <c r="Q147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>5434619</v>
+        <v>5327821</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TaEnrollment</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TaEnrollment</t>
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>45902.01258101852</v>
+        <v>45978.96655092593</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F148" t="n">
-        <v>1.075555555555556</v>
+        <v>4.826666666666667</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -8860,53 +9736,45 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>CGS2100.005F25</t>
+          <t>CGS2100.004F25</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>U02475384</t>
+          <t>U41133874</t>
         </is>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="P148" t="inlineStr"/>
       <c r="Q148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>5299657</v>
+        <v>964585</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TeacherEnrollment</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TeacherEnrollment</t>
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>45902.7606712963</v>
+        <v>45988.94815972223</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0.1436111111111111</v>
+        <v>6.924444444444444</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -8915,61 +9783,45 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>CGS2100.004F25</t>
+          <t>CGS2100.006F25</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>U08103433</t>
+          <t>U84383097</t>
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="N149" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
+      <c r="P149" t="inlineStr"/>
       <c r="Q149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>5441311</v>
+        <v>964585</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TeacherEnrollment</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>StudentEnrollment</t>
+          <t>TeacherEnrollment</t>
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>45898.96763888889</v>
+        <v>45988.94815972223</v>
       </c>
       <c r="E150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.4444444444444444</v>
+        <v>6.924444444444444</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -8978,53 +9830,45 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>CGS2100.006F25</t>
+          <t>CGS2100.005F25</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>U54046909</t>
+          <t>U84383097</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="M150" t="inlineStr"/>
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
+      <c r="P150" t="inlineStr"/>
       <c r="Q150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>4234222</v>
+        <v>964585</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TaEnrollment</t>
+          <t>TeacherEnrollment</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>TaEnrollment</t>
+          <t>TeacherEnrollment</t>
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>45898.62601851852</v>
+        <v>45988.94815972223</v>
       </c>
       <c r="E151" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>0.5122222222222222</v>
+        <v>6.924444444444444</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -9038,7 +9882,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>U79359517</t>
+          <t>U84383097</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
@@ -9050,194 +9894,6 @@
       <c r="P151" t="inlineStr"/>
       <c r="Q151" t="inlineStr"/>
     </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>5327821</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>TaEnrollment</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>TaEnrollment</t>
-        </is>
-      </c>
-      <c r="D152" s="2" t="n">
-        <v>45902.69607638889</v>
-      </c>
-      <c r="E152" t="n">
-        <v>0</v>
-      </c>
-      <c r="F152" t="n">
-        <v>0.5855555555555556</v>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>CGS2100.004F25</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>CGS2100.004F25</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>U41133874</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="inlineStr"/>
-      <c r="N152" t="inlineStr"/>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>964585</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>TeacherEnrollment</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>TeacherEnrollment</t>
-        </is>
-      </c>
-      <c r="D153" s="2" t="n">
-        <v>45902.86789351852</v>
-      </c>
-      <c r="E153" t="n">
-        <v>0</v>
-      </c>
-      <c r="F153" t="n">
-        <v>2.576111111111111</v>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>CGS2100.004F25</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>CGS2100.006F25</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>U84383097</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr"/>
-      <c r="N153" t="inlineStr"/>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>964585</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>TeacherEnrollment</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>TeacherEnrollment</t>
-        </is>
-      </c>
-      <c r="D154" s="2" t="n">
-        <v>45902.86789351852</v>
-      </c>
-      <c r="E154" t="n">
-        <v>0</v>
-      </c>
-      <c r="F154" t="n">
-        <v>2.576111111111111</v>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>CGS2100.004F25</t>
-        </is>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>CGS2100.005F25</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>U84383097</t>
-        </is>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
-      <c r="N154" t="inlineStr"/>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>964585</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>TeacherEnrollment</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>TeacherEnrollment</t>
-        </is>
-      </c>
-      <c r="D155" s="2" t="n">
-        <v>45902.86789351852</v>
-      </c>
-      <c r="E155" t="n">
-        <v>0</v>
-      </c>
-      <c r="F155" t="n">
-        <v>2.576111111111111</v>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>CGS2100.004F25</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>CGS2100.004F25</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>U84383097</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
-      <c r="N155" t="inlineStr"/>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
